--- a/текущий день_ОСВ_66_Название компании (XLSX).xlsx
+++ b/текущий день_ОСВ_66_Название компании (XLSX).xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushin_in\Desktop\Новая папка\osv_distribution\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2640350-C542-4042-86EC-834B1BDA6D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243DF4A7-8B7B-4D46-8182-F1E6F5F346EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,6 +223,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -239,12 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,72 +626,72 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -704,10 +699,10 @@
       <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
@@ -719,13 +714,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
